--- a/data-dml/mosip_master/dml/master-template.xlsx
+++ b/data-dml/mosip_master/dml/master-template.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A39FC0-212B-4239-918A-BBA397E11B31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4557" uniqueCount="847">
   <si>
     <t>id</t>
   </si>
@@ -2501,12 +2500,84 @@
   <si>
     <t>Cher $!name_fra,
 Votre demande d'UIN pour l'ID d'enregistrement : $!RID est en attente car vous avez besoin de détails supplémentaires avec AdditionalInfoRequestId $!additionalInfoRequestId et additionalInfoProcess $!additionalInfoProcess. Veuillez visiter votre bureau d'enregistrement le plus proche ou visitez https://mosip.io/grievances pour progresser sur l'application de l'UIN.</t>
+  </si>
+  <si>
+    <t>Registration Failed because you have already Registered</t>
+  </si>
+  <si>
+    <t>RPR_DUP_UIN_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>L'inscription a échoué car vous êtes déjà inscrit</t>
+  </si>
+  <si>
+    <t>فشل التسجيل لأنك قمت بالتسجيل بالفعل</t>
+  </si>
+  <si>
+    <t>Re-Register because there was a Technical Issue</t>
+  </si>
+  <si>
+    <t>Réinscrivez-vous car il y a eu un problème technique</t>
+  </si>
+  <si>
+    <t>إعادة التسجيل بسبب وجود مشكلة فنية</t>
+  </si>
+  <si>
+    <t>RPR_TEC_ISSUE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_REAC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_DEAC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_GEN_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_UPD_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Uin is activated successfully</t>
+  </si>
+  <si>
+    <t>تم تفعيل Uin بنجاح</t>
+  </si>
+  <si>
+    <t>Uin est activé avec succès</t>
+  </si>
+  <si>
+    <t>Uin is deactivated</t>
+  </si>
+  <si>
+    <t>Uin est désactivé</t>
+  </si>
+  <si>
+    <t>تم إلغاء تنشيط Uin</t>
+  </si>
+  <si>
+    <t>UIN Generated</t>
+  </si>
+  <si>
+    <t>تم إنشاء UIN</t>
+  </si>
+  <si>
+    <t>UIN généré</t>
+  </si>
+  <si>
+    <t>UIN Details Updated</t>
+  </si>
+  <si>
+    <t>تم تحديث تفاصيل UIN</t>
+  </si>
+  <si>
+    <t>Détails UIN mis à jour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2820,11 +2891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M437"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="F438" sqref="F438"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="F456" sqref="F456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20752,8 +20823,746 @@
         <v>20</v>
       </c>
     </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>1274</v>
+      </c>
+      <c r="B438" t="s">
+        <v>823</v>
+      </c>
+      <c r="C438" t="s">
+        <v>823</v>
+      </c>
+      <c r="D438" t="s">
+        <v>14</v>
+      </c>
+      <c r="E438" t="s">
+        <v>28</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G438">
+        <v>10003</v>
+      </c>
+      <c r="H438" t="s">
+        <v>46</v>
+      </c>
+      <c r="I438" t="s">
+        <v>824</v>
+      </c>
+      <c r="J438" t="s">
+        <v>18</v>
+      </c>
+      <c r="K438" t="b">
+        <v>1</v>
+      </c>
+      <c r="L438" t="s">
+        <v>19</v>
+      </c>
+      <c r="M438" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>1274</v>
+      </c>
+      <c r="B439" t="s">
+        <v>825</v>
+      </c>
+      <c r="C439" t="s">
+        <v>825</v>
+      </c>
+      <c r="D439" t="s">
+        <v>14</v>
+      </c>
+      <c r="E439" t="s">
+        <v>28</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G439">
+        <v>10003</v>
+      </c>
+      <c r="H439" t="s">
+        <v>46</v>
+      </c>
+      <c r="I439" t="s">
+        <v>824</v>
+      </c>
+      <c r="J439" t="s">
+        <v>39</v>
+      </c>
+      <c r="K439" t="b">
+        <v>1</v>
+      </c>
+      <c r="L439" t="s">
+        <v>19</v>
+      </c>
+      <c r="M439" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>1274</v>
+      </c>
+      <c r="B440" t="s">
+        <v>826</v>
+      </c>
+      <c r="C440" t="s">
+        <v>826</v>
+      </c>
+      <c r="D440" t="s">
+        <v>14</v>
+      </c>
+      <c r="E440" t="s">
+        <v>28</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G440">
+        <v>10003</v>
+      </c>
+      <c r="H440" t="s">
+        <v>46</v>
+      </c>
+      <c r="I440" t="s">
+        <v>824</v>
+      </c>
+      <c r="J440" t="s">
+        <v>31</v>
+      </c>
+      <c r="K440" t="b">
+        <v>1</v>
+      </c>
+      <c r="L440" t="s">
+        <v>19</v>
+      </c>
+      <c r="M440" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>1275</v>
+      </c>
+      <c r="B441" t="s">
+        <v>827</v>
+      </c>
+      <c r="C441" t="s">
+        <v>827</v>
+      </c>
+      <c r="D441" t="s">
+        <v>14</v>
+      </c>
+      <c r="E441" t="s">
+        <v>28</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G441">
+        <v>10003</v>
+      </c>
+      <c r="H441" t="s">
+        <v>46</v>
+      </c>
+      <c r="I441" t="s">
+        <v>830</v>
+      </c>
+      <c r="J441" t="s">
+        <v>18</v>
+      </c>
+      <c r="K441" t="b">
+        <v>1</v>
+      </c>
+      <c r="L441" t="s">
+        <v>19</v>
+      </c>
+      <c r="M441" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>1275</v>
+      </c>
+      <c r="B442" t="s">
+        <v>828</v>
+      </c>
+      <c r="C442" t="s">
+        <v>828</v>
+      </c>
+      <c r="D442" t="s">
+        <v>14</v>
+      </c>
+      <c r="E442" t="s">
+        <v>28</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G442">
+        <v>10003</v>
+      </c>
+      <c r="H442" t="s">
+        <v>46</v>
+      </c>
+      <c r="I442" t="s">
+        <v>830</v>
+      </c>
+      <c r="J442" t="s">
+        <v>39</v>
+      </c>
+      <c r="K442" t="b">
+        <v>1</v>
+      </c>
+      <c r="L442" t="s">
+        <v>19</v>
+      </c>
+      <c r="M442" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>1275</v>
+      </c>
+      <c r="B443" t="s">
+        <v>829</v>
+      </c>
+      <c r="C443" t="s">
+        <v>829</v>
+      </c>
+      <c r="D443" t="s">
+        <v>14</v>
+      </c>
+      <c r="E443" t="s">
+        <v>28</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="G443">
+        <v>10003</v>
+      </c>
+      <c r="H443" t="s">
+        <v>46</v>
+      </c>
+      <c r="I443" t="s">
+        <v>830</v>
+      </c>
+      <c r="J443" t="s">
+        <v>31</v>
+      </c>
+      <c r="K443" t="b">
+        <v>1</v>
+      </c>
+      <c r="L443" t="s">
+        <v>19</v>
+      </c>
+      <c r="M443" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>1276</v>
+      </c>
+      <c r="B444" t="s">
+        <v>835</v>
+      </c>
+      <c r="C444" t="s">
+        <v>835</v>
+      </c>
+      <c r="D444" t="s">
+        <v>14</v>
+      </c>
+      <c r="E444" t="s">
+        <v>28</v>
+      </c>
+      <c r="F444" t="s">
+        <v>835</v>
+      </c>
+      <c r="G444">
+        <v>10003</v>
+      </c>
+      <c r="H444" t="s">
+        <v>46</v>
+      </c>
+      <c r="I444" t="s">
+        <v>831</v>
+      </c>
+      <c r="J444" t="s">
+        <v>18</v>
+      </c>
+      <c r="K444" t="b">
+        <v>1</v>
+      </c>
+      <c r="L444" t="s">
+        <v>19</v>
+      </c>
+      <c r="M444" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>1276</v>
+      </c>
+      <c r="B445" t="s">
+        <v>837</v>
+      </c>
+      <c r="C445" t="s">
+        <v>837</v>
+      </c>
+      <c r="D445" t="s">
+        <v>14</v>
+      </c>
+      <c r="E445" t="s">
+        <v>28</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G445">
+        <v>10003</v>
+      </c>
+      <c r="H445" t="s">
+        <v>46</v>
+      </c>
+      <c r="I445" t="s">
+        <v>831</v>
+      </c>
+      <c r="J445" t="s">
+        <v>39</v>
+      </c>
+      <c r="K445" t="b">
+        <v>1</v>
+      </c>
+      <c r="L445" t="s">
+        <v>19</v>
+      </c>
+      <c r="M445" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>1276</v>
+      </c>
+      <c r="B446" t="s">
+        <v>836</v>
+      </c>
+      <c r="C446" t="s">
+        <v>836</v>
+      </c>
+      <c r="D446" t="s">
+        <v>14</v>
+      </c>
+      <c r="E446" t="s">
+        <v>28</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G446">
+        <v>10003</v>
+      </c>
+      <c r="H446" t="s">
+        <v>46</v>
+      </c>
+      <c r="I446" t="s">
+        <v>831</v>
+      </c>
+      <c r="J446" t="s">
+        <v>31</v>
+      </c>
+      <c r="K446" t="b">
+        <v>1</v>
+      </c>
+      <c r="L446" t="s">
+        <v>19</v>
+      </c>
+      <c r="M446" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>1277</v>
+      </c>
+      <c r="B447" t="s">
+        <v>838</v>
+      </c>
+      <c r="C447" t="s">
+        <v>838</v>
+      </c>
+      <c r="D447" t="s">
+        <v>14</v>
+      </c>
+      <c r="E447" t="s">
+        <v>28</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G447">
+        <v>10003</v>
+      </c>
+      <c r="H447" t="s">
+        <v>46</v>
+      </c>
+      <c r="I447" t="s">
+        <v>832</v>
+      </c>
+      <c r="J447" t="s">
+        <v>18</v>
+      </c>
+      <c r="K447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="s">
+        <v>19</v>
+      </c>
+      <c r="M447" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>1277</v>
+      </c>
+      <c r="B448" t="s">
+        <v>839</v>
+      </c>
+      <c r="C448" t="s">
+        <v>839</v>
+      </c>
+      <c r="D448" t="s">
+        <v>14</v>
+      </c>
+      <c r="E448" t="s">
+        <v>28</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G448">
+        <v>10003</v>
+      </c>
+      <c r="H448" t="s">
+        <v>46</v>
+      </c>
+      <c r="I448" t="s">
+        <v>832</v>
+      </c>
+      <c r="J448" t="s">
+        <v>39</v>
+      </c>
+      <c r="K448" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="s">
+        <v>19</v>
+      </c>
+      <c r="M448" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>1277</v>
+      </c>
+      <c r="B449" t="s">
+        <v>840</v>
+      </c>
+      <c r="C449" t="s">
+        <v>840</v>
+      </c>
+      <c r="D449" t="s">
+        <v>14</v>
+      </c>
+      <c r="E449" t="s">
+        <v>28</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="G449">
+        <v>10003</v>
+      </c>
+      <c r="H449" t="s">
+        <v>46</v>
+      </c>
+      <c r="I449" t="s">
+        <v>832</v>
+      </c>
+      <c r="J449" t="s">
+        <v>31</v>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="s">
+        <v>19</v>
+      </c>
+      <c r="M449" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>1278</v>
+      </c>
+      <c r="B450" t="s">
+        <v>841</v>
+      </c>
+      <c r="C450" t="s">
+        <v>841</v>
+      </c>
+      <c r="D450" t="s">
+        <v>14</v>
+      </c>
+      <c r="E450" t="s">
+        <v>28</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G450">
+        <v>10003</v>
+      </c>
+      <c r="H450" t="s">
+        <v>46</v>
+      </c>
+      <c r="I450" t="s">
+        <v>833</v>
+      </c>
+      <c r="J450" t="s">
+        <v>18</v>
+      </c>
+      <c r="K450" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="s">
+        <v>19</v>
+      </c>
+      <c r="M450" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>1278</v>
+      </c>
+      <c r="B451" t="s">
+        <v>843</v>
+      </c>
+      <c r="C451" t="s">
+        <v>843</v>
+      </c>
+      <c r="D451" t="s">
+        <v>14</v>
+      </c>
+      <c r="E451" t="s">
+        <v>28</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="G451">
+        <v>10003</v>
+      </c>
+      <c r="H451" t="s">
+        <v>46</v>
+      </c>
+      <c r="I451" t="s">
+        <v>833</v>
+      </c>
+      <c r="J451" t="s">
+        <v>39</v>
+      </c>
+      <c r="K451" t="b">
+        <v>1</v>
+      </c>
+      <c r="L451" t="s">
+        <v>19</v>
+      </c>
+      <c r="M451" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <v>1278</v>
+      </c>
+      <c r="B452" t="s">
+        <v>842</v>
+      </c>
+      <c r="C452" t="s">
+        <v>842</v>
+      </c>
+      <c r="D452" t="s">
+        <v>14</v>
+      </c>
+      <c r="E452" t="s">
+        <v>28</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G452">
+        <v>10003</v>
+      </c>
+      <c r="H452" t="s">
+        <v>46</v>
+      </c>
+      <c r="I452" t="s">
+        <v>833</v>
+      </c>
+      <c r="J452" t="s">
+        <v>31</v>
+      </c>
+      <c r="K452" t="b">
+        <v>1</v>
+      </c>
+      <c r="L452" t="s">
+        <v>19</v>
+      </c>
+      <c r="M452" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <v>1279</v>
+      </c>
+      <c r="B453" t="s">
+        <v>844</v>
+      </c>
+      <c r="C453" t="s">
+        <v>844</v>
+      </c>
+      <c r="D453" t="s">
+        <v>14</v>
+      </c>
+      <c r="E453" t="s">
+        <v>28</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="G453">
+        <v>10003</v>
+      </c>
+      <c r="H453" t="s">
+        <v>46</v>
+      </c>
+      <c r="I453" t="s">
+        <v>834</v>
+      </c>
+      <c r="J453" t="s">
+        <v>18</v>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="s">
+        <v>19</v>
+      </c>
+      <c r="M453" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <v>1279</v>
+      </c>
+      <c r="B454" t="s">
+        <v>846</v>
+      </c>
+      <c r="C454" t="s">
+        <v>846</v>
+      </c>
+      <c r="D454" t="s">
+        <v>14</v>
+      </c>
+      <c r="E454" t="s">
+        <v>28</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G454">
+        <v>10003</v>
+      </c>
+      <c r="H454" t="s">
+        <v>46</v>
+      </c>
+      <c r="I454" t="s">
+        <v>834</v>
+      </c>
+      <c r="J454" t="s">
+        <v>39</v>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="s">
+        <v>19</v>
+      </c>
+      <c r="M454" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A455">
+        <v>1279</v>
+      </c>
+      <c r="B455" t="s">
+        <v>845</v>
+      </c>
+      <c r="C455" t="s">
+        <v>845</v>
+      </c>
+      <c r="D455" t="s">
+        <v>14</v>
+      </c>
+      <c r="E455" t="s">
+        <v>28</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G455">
+        <v>10003</v>
+      </c>
+      <c r="H455" t="s">
+        <v>46</v>
+      </c>
+      <c r="I455" t="s">
+        <v>834</v>
+      </c>
+      <c r="J455" t="s">
+        <v>31</v>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="s">
+        <v>19</v>
+      </c>
+      <c r="M455" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{493D9055-CB8A-4896-BD32-23224F84A471}"/>
+  <autoFilter ref="A1:M1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data-dml/mosip_master/dml/master-template.xlsx
+++ b/data-dml/mosip_master/dml/master-template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4557" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="851">
   <si>
     <t>id</t>
   </si>
@@ -2572,6 +2572,18 @@
   </si>
   <si>
     <t>Détails UIN mis à jour</t>
+  </si>
+  <si>
+    <t>Requesting the additional details for progressing on the application of UIN</t>
+  </si>
+  <si>
+    <t>RPR_PAUSED_FOR_ADDITIONAL_INFO_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Demander des détails supplémentaires pour progresser sur l'application de l'UIN</t>
+  </si>
+  <si>
+    <t>طلب تفاصيل إضافية للتقدم في تطبيق UIN</t>
   </si>
 </sst>
 </file>
@@ -2892,16 +2904,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M455"/>
+  <dimension ref="A1:M458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="F456" sqref="F456"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="H458" sqref="H458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="34.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="54.1796875" customWidth="1"/>
     <col min="8" max="8" width="19.6328125" customWidth="1"/>
   </cols>
@@ -2910,10 +2922,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2947,14 +2959,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
@@ -2988,14 +3000,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
@@ -3029,14 +3041,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
@@ -3074,10 +3086,10 @@
       <c r="A5">
         <v>1101</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
@@ -3115,10 +3127,10 @@
       <c r="A6">
         <v>1102</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
@@ -3156,10 +3168,10 @@
       <c r="A7">
         <v>1103</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
@@ -3193,14 +3205,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1101</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
@@ -3234,14 +3246,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1102</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
@@ -3275,14 +3287,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1103</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D10" t="s">
@@ -3316,14 +3328,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1107</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
@@ -3357,14 +3369,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1108</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D12" t="s">
@@ -3398,14 +3410,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1109</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
@@ -3439,14 +3451,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1110</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D14" t="s">
@@ -3480,14 +3492,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1111</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D15" t="s">
@@ -3521,14 +3533,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1112</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D16" t="s">
@@ -3562,14 +3574,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1113</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D17" t="s">
@@ -3603,14 +3615,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1114</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D18" t="s">
@@ -3648,10 +3660,10 @@
       <c r="A19">
         <v>1107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D19" t="s">
@@ -3689,10 +3701,10 @@
       <c r="A20">
         <v>1108</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D20" t="s">
@@ -3730,10 +3742,10 @@
       <c r="A21">
         <v>1109</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D21" t="s">
@@ -3771,10 +3783,10 @@
       <c r="A22">
         <v>1110</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D22" t="s">
@@ -3812,10 +3824,10 @@
       <c r="A23">
         <v>1111</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D23" t="s">
@@ -3853,10 +3865,10 @@
       <c r="A24">
         <v>1112</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D24" t="s">
@@ -3890,14 +3902,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1113</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D25" t="s">
@@ -3935,10 +3947,10 @@
       <c r="A26">
         <v>1114</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D26" t="s">
@@ -3972,14 +3984,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1107</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D27" t="s">
@@ -4013,14 +4025,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1108</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D28" t="s">
@@ -4054,14 +4066,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1109</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D29" t="s">
@@ -4095,14 +4107,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1110</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D30" t="s">
@@ -4136,14 +4148,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1111</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D31" t="s">
@@ -4177,14 +4189,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1112</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D32" t="s">
@@ -4218,14 +4230,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1113</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D33" t="s">
@@ -4259,14 +4271,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1114</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D34" t="s">
@@ -4300,14 +4312,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1115</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D35" t="s">
@@ -4341,14 +4353,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1116</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D36" t="s">
@@ -4382,14 +4394,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1117</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D37" t="s">
@@ -4423,14 +4435,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D38" t="s">
@@ -4464,14 +4476,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1119</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D39" t="s">
@@ -4509,10 +4521,10 @@
       <c r="A40">
         <v>1120</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D40" t="s">
@@ -4546,14 +4558,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1121</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D41" t="s">
@@ -4587,14 +4599,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1122</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D42" t="s">
@@ -4628,14 +4640,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1123</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D43" t="s">
@@ -4669,14 +4681,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1115</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D44" t="s">
@@ -4710,14 +4722,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1116</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D45" t="s">
@@ -4755,10 +4767,10 @@
       <c r="A46">
         <v>1117</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D46" t="s">
@@ -4792,14 +4804,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1118</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D47" t="s">
@@ -4833,14 +4845,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1119</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D48" t="s">
@@ -4878,10 +4890,10 @@
       <c r="A49">
         <v>1120</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D49" t="s">
@@ -4915,14 +4927,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1121</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D50" t="s">
@@ -4956,14 +4968,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1122</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D51" t="s">
@@ -5001,10 +5013,10 @@
       <c r="A52">
         <v>1123</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D52" t="s">
@@ -5038,14 +5050,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1115</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D53" t="s">
@@ -5079,14 +5091,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1116</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D54" t="s">
@@ -5120,14 +5132,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1117</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D55" t="s">
@@ -5161,14 +5173,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1118</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D56" t="s">
@@ -5202,14 +5214,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1119</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D57" t="s">
@@ -5247,10 +5259,10 @@
       <c r="A58">
         <v>1120</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D58" t="s">
@@ -5284,14 +5296,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1121</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D59" t="s">
@@ -5325,14 +5337,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1122</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D60" t="s">
@@ -5366,14 +5378,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1123</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D61" t="s">
@@ -5407,14 +5419,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1124</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D62" t="s">
@@ -5448,14 +5460,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1125</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D63" t="s">
@@ -5489,14 +5501,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1126</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D64" t="s">
@@ -5530,14 +5542,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1127</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D65" t="s">
@@ -5575,10 +5587,10 @@
       <c r="A66">
         <v>1128</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D66" t="s">
@@ -5612,14 +5624,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1129</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D67" t="s">
@@ -5657,10 +5669,10 @@
       <c r="A68">
         <v>1124</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D68" t="s">
@@ -5698,10 +5710,10 @@
       <c r="A69">
         <v>1125</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D69" t="s">
@@ -5735,14 +5747,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1126</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D70" t="s">
@@ -5776,14 +5788,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1127</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D71" t="s">
@@ -5821,10 +5833,10 @@
       <c r="A72">
         <v>1128</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D72" t="s">
@@ -5862,10 +5874,10 @@
       <c r="A73">
         <v>1129</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D73" t="s">
@@ -5899,14 +5911,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1124</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D74" t="s">
@@ -5940,14 +5952,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1125</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D75" t="s">
@@ -5981,14 +5993,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1126</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D76" t="s">
@@ -6022,14 +6034,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1127</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D77" t="s">
@@ -6067,10 +6079,10 @@
       <c r="A78">
         <v>1128</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D78" t="s">
@@ -6104,14 +6116,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1129</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D79" t="s">
@@ -6145,14 +6157,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1130</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D80" t="s">
@@ -6186,14 +6198,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1130</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D81" t="s">
@@ -6227,14 +6239,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1130</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D82" t="s">
@@ -6272,10 +6284,10 @@
       <c r="A83">
         <v>1131</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D83" t="s">
@@ -6313,10 +6325,10 @@
       <c r="A84">
         <v>1131</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D84" t="s">
@@ -6354,10 +6366,10 @@
       <c r="A85">
         <v>1131</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D85" t="s">
@@ -6391,14 +6403,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1132</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D86" t="s">
@@ -6436,10 +6448,10 @@
       <c r="A87">
         <v>1132</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D87" t="s">
@@ -6473,14 +6485,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1132</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D88" t="s">
@@ -6514,14 +6526,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1133</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D89" t="s">
@@ -6559,10 +6571,10 @@
       <c r="A90">
         <v>1133</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D90" t="s">
@@ -6596,14 +6608,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1133</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D91" t="s">
@@ -6637,14 +6649,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1134</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D92" t="s">
@@ -6682,10 +6694,10 @@
       <c r="A93">
         <v>1134</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D93" t="s">
@@ -6719,14 +6731,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1134</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D94" t="s">
@@ -6760,14 +6772,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1135</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D95" t="s">
@@ -6805,10 +6817,10 @@
       <c r="A96">
         <v>1135</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D96" t="s">
@@ -6842,14 +6854,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1135</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D97" t="s">
@@ -6883,14 +6895,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1136</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D98" t="s">
@@ -6928,10 +6940,10 @@
       <c r="A99">
         <v>1136</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D99" t="s">
@@ -6965,14 +6977,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1136</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D100" t="s">
@@ -7006,14 +7018,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1137</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D101" t="s">
@@ -7051,10 +7063,10 @@
       <c r="A102">
         <v>1137</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D102" t="s">
@@ -7088,14 +7100,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1137</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D103" t="s">
@@ -7133,10 +7145,10 @@
       <c r="A104" t="s">
         <v>260</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D104" t="s">
@@ -7174,10 +7186,10 @@
       <c r="A105" t="s">
         <v>264</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D105" t="s">
@@ -7215,10 +7227,10 @@
       <c r="A106" t="s">
         <v>266</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D106" t="s">
@@ -7256,10 +7268,10 @@
       <c r="A107" t="s">
         <v>268</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D107" t="s">
@@ -7293,14 +7305,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1142</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D108" t="s">
@@ -7334,14 +7346,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1142</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D109" t="s">
@@ -7375,14 +7387,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1142</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D110" t="s">
@@ -7416,14 +7428,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1143</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D111" t="s">
@@ -7457,14 +7469,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1143</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D112" t="s">
@@ -7498,14 +7510,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1143</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D113" t="s">
@@ -7539,14 +7551,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1144</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D114" t="s">
@@ -7580,14 +7592,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1144</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D115" t="s">
@@ -7621,14 +7633,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1144</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D116" t="s">
@@ -7662,14 +7674,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1145</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D117" t="s">
@@ -7703,14 +7715,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1145</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D118" t="s">
@@ -7744,14 +7756,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1145</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D119" t="s">
@@ -7785,14 +7797,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1146</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D120" t="s">
@@ -7826,14 +7838,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1146</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D121" t="s">
@@ -7867,14 +7879,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1146</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D122" t="s">
@@ -7908,14 +7920,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1147</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D123" t="s">
@@ -7949,14 +7961,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1147</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D124" t="s">
@@ -7990,14 +8002,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1147</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D125" t="s">
@@ -8031,14 +8043,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1148</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D126" t="s">
@@ -8072,14 +8084,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1148</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D127" t="s">
@@ -8113,14 +8125,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1148</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D128" t="s">
@@ -8154,14 +8166,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1149</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D129" t="s">
@@ -8195,14 +8207,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1149</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D130" t="s">
@@ -8236,14 +8248,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1149</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D131" t="s">
@@ -8277,14 +8289,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1150</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D132" t="s">
@@ -8318,14 +8330,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1150</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D133" t="s">
@@ -8359,14 +8371,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1150</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D134" t="s">
@@ -8404,10 +8416,10 @@
       <c r="A135">
         <v>1151</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D135" t="s">
@@ -8445,10 +8457,10 @@
       <c r="A136">
         <v>1151</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D136" t="s">
@@ -8482,14 +8494,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1151</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D137" t="s">
@@ -8527,10 +8539,10 @@
       <c r="A138">
         <v>1152</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D138" t="s">
@@ -8568,10 +8580,10 @@
       <c r="A139">
         <v>1152</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>292</v>
       </c>
       <c r="D139" t="s">
@@ -8609,10 +8621,10 @@
       <c r="A140">
         <v>1152</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>294</v>
       </c>
       <c r="D140" t="s">
@@ -8650,10 +8662,10 @@
       <c r="A141">
         <v>1153</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>296</v>
       </c>
       <c r="D141" t="s">
@@ -8687,14 +8699,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1153</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D142" t="s">
@@ -8732,10 +8744,10 @@
       <c r="A143">
         <v>1153</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D143" t="s">
@@ -8773,10 +8785,10 @@
       <c r="A144">
         <v>1154</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D144" t="s">
@@ -8814,10 +8826,10 @@
       <c r="A145">
         <v>1154</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>306</v>
       </c>
       <c r="D145" t="s">
@@ -8855,10 +8867,10 @@
       <c r="A146">
         <v>1154</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>308</v>
       </c>
       <c r="D146" t="s">
@@ -8896,10 +8908,10 @@
       <c r="A147">
         <v>1155</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D147" t="s">
@@ -8933,14 +8945,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1155</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D148" t="s">
@@ -8974,14 +8986,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1155</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D149" t="s">
@@ -9019,10 +9031,10 @@
       <c r="A150">
         <v>1156</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D150" t="s">
@@ -9056,14 +9068,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1156</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D151" t="s">
@@ -9097,14 +9109,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1156</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D152" t="s">
@@ -9142,10 +9154,10 @@
       <c r="A153">
         <v>1157</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D153" t="s">
@@ -9179,14 +9191,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1157</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D154" t="s">
@@ -9220,14 +9232,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1157</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D155" t="s">
@@ -9265,10 +9277,10 @@
       <c r="A156">
         <v>1158</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D156" t="s">
@@ -9302,14 +9314,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1158</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D157" t="s">
@@ -9343,14 +9355,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1158</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D158" t="s">
@@ -9384,14 +9396,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1159</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>327</v>
       </c>
       <c r="D159" t="s">
@@ -9429,10 +9441,10 @@
       <c r="A160">
         <v>1159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>330</v>
       </c>
       <c r="D160" t="s">
@@ -9466,14 +9478,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>332</v>
       </c>
       <c r="D161" t="s">
@@ -9511,10 +9523,10 @@
       <c r="A162">
         <v>1160</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="1" t="s">
         <v>334</v>
       </c>
       <c r="D162" t="s">
@@ -9552,10 +9564,10 @@
       <c r="A163">
         <v>1160</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D163" t="s">
@@ -9589,14 +9601,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1160</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D164" t="s">
@@ -9634,10 +9646,10 @@
       <c r="A165">
         <v>1161</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>341</v>
       </c>
       <c r="D165" t="s">
@@ -9671,14 +9683,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1161</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="1" t="s">
         <v>344</v>
       </c>
       <c r="D166" t="s">
@@ -9712,14 +9724,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1161</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="1" t="s">
         <v>346</v>
       </c>
       <c r="D167" t="s">
@@ -9757,10 +9769,10 @@
       <c r="A168">
         <v>1162</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D168" t="s">
@@ -9798,10 +9810,10 @@
       <c r="A169">
         <v>1162</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D169" t="s">
@@ -9835,14 +9847,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1162</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D170" t="s">
@@ -9876,14 +9888,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1163</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D171" t="s">
@@ -9921,10 +9933,10 @@
       <c r="A172">
         <v>1163</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>358</v>
       </c>
       <c r="D172" t="s">
@@ -9958,14 +9970,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1163</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>360</v>
       </c>
       <c r="D173" t="s">
@@ -9999,14 +10011,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1164</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="1" t="s">
         <v>362</v>
       </c>
       <c r="D174" t="s">
@@ -10044,10 +10056,10 @@
       <c r="A175">
         <v>1164</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>364</v>
       </c>
       <c r="D175" t="s">
@@ -10081,14 +10093,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1164</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>366</v>
       </c>
       <c r="D176" t="s">
@@ -10122,14 +10134,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1165</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>367</v>
       </c>
       <c r="D177" t="s">
@@ -10163,14 +10175,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1165</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>370</v>
       </c>
       <c r="D178" t="s">
@@ -10204,14 +10216,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1165</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>372</v>
       </c>
       <c r="D179" t="s">
@@ -10245,14 +10257,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1166</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>374</v>
       </c>
       <c r="D180" t="s">
@@ -10290,10 +10302,10 @@
       <c r="A181">
         <v>1166</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D181" t="s">
@@ -10327,14 +10339,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1166</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D182" t="s">
@@ -10368,14 +10380,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1167</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="1" t="s">
         <v>382</v>
       </c>
       <c r="D183" t="s">
@@ -10409,14 +10421,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1167</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="1" t="s">
         <v>385</v>
       </c>
       <c r="D184" t="s">
@@ -10450,14 +10462,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1167</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="1" t="s">
         <v>387</v>
       </c>
       <c r="D185" t="s">
@@ -10491,14 +10503,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1168</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="1" t="s">
         <v>389</v>
       </c>
       <c r="D186" t="s">
@@ -10536,10 +10548,10 @@
       <c r="A187">
         <v>1168</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="1" t="s">
         <v>391</v>
       </c>
       <c r="D187" t="s">
@@ -10573,14 +10585,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1168</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>392</v>
       </c>
       <c r="D188" t="s">
@@ -10614,14 +10626,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1169</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>393</v>
       </c>
       <c r="D189" t="s">
@@ -10655,14 +10667,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1169</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D190" t="s">
@@ -10696,14 +10708,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1169</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="1" t="s">
         <v>398</v>
       </c>
       <c r="D191" t="s">
@@ -10737,14 +10749,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1170</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D192" t="s">
@@ -10778,14 +10790,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1170</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="1" t="s">
         <v>403</v>
       </c>
       <c r="D193" t="s">
@@ -10819,14 +10831,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1170</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="1" t="s">
         <v>405</v>
       </c>
       <c r="D194" t="s">
@@ -10860,14 +10872,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1171</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="1" t="s">
         <v>407</v>
       </c>
       <c r="D195" t="s">
@@ -10901,14 +10913,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1171</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D196" t="s">
@@ -10942,14 +10954,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1171</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="1" t="s">
         <v>410</v>
       </c>
       <c r="D197" t="s">
@@ -10983,14 +10995,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1172</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="1" t="s">
         <v>411</v>
       </c>
       <c r="D198" t="s">
@@ -11024,14 +11036,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1172</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="1" t="s">
         <v>414</v>
       </c>
       <c r="D199" t="s">
@@ -11065,14 +11077,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1172</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="1" t="s">
         <v>416</v>
       </c>
       <c r="D200" t="s">
@@ -11106,14 +11118,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1173</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="1" t="s">
         <v>418</v>
       </c>
       <c r="D201" t="s">
@@ -11147,14 +11159,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1173</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="1" t="s">
         <v>421</v>
       </c>
       <c r="D202" t="s">
@@ -11188,14 +11200,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1173</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="1" t="s">
         <v>423</v>
       </c>
       <c r="D203" t="s">
@@ -11229,14 +11241,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1174</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="1" t="s">
         <v>425</v>
       </c>
       <c r="D204" t="s">
@@ -11270,14 +11282,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1174</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="1" t="s">
         <v>427</v>
       </c>
       <c r="D205" t="s">
@@ -11311,14 +11323,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1174</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="1" t="s">
         <v>428</v>
       </c>
       <c r="D206" t="s">
@@ -11352,14 +11364,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1175</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="1" t="s">
         <v>429</v>
       </c>
       <c r="D207" t="s">
@@ -11397,10 +11409,10 @@
       <c r="A208">
         <v>1175</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="1" t="s">
         <v>432</v>
       </c>
       <c r="D208" t="s">
@@ -11434,14 +11446,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1175</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D209" t="s">
@@ -11475,14 +11487,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1176</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="1" t="s">
         <v>436</v>
       </c>
       <c r="D210" t="s">
@@ -11516,14 +11528,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1176</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="1" t="s">
         <v>439</v>
       </c>
       <c r="D211" t="s">
@@ -11557,14 +11569,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1176</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="1" t="s">
         <v>441</v>
       </c>
       <c r="D212" t="s">
@@ -11598,14 +11610,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1177</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="1" t="s">
         <v>443</v>
       </c>
       <c r="D213" t="s">
@@ -11643,10 +11655,10 @@
       <c r="A214">
         <v>1177</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="1" t="s">
         <v>445</v>
       </c>
       <c r="D214" t="s">
@@ -11680,14 +11692,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1177</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="1" t="s">
         <v>446</v>
       </c>
       <c r="D215" t="s">
@@ -11721,14 +11733,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1178</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="1" t="s">
         <v>447</v>
       </c>
       <c r="D216" t="s">
@@ -11766,10 +11778,10 @@
       <c r="A217">
         <v>1178</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="1" t="s">
         <v>450</v>
       </c>
       <c r="D217" t="s">
@@ -11803,14 +11815,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1178</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="1" t="s">
         <v>452</v>
       </c>
       <c r="D218" t="s">
@@ -11844,14 +11856,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1179</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="1" t="s">
         <v>454</v>
       </c>
       <c r="D219" t="s">
@@ -11885,14 +11897,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1179</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="1" t="s">
         <v>457</v>
       </c>
       <c r="D220" t="s">
@@ -11926,14 +11938,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1179</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="1" t="s">
         <v>459</v>
       </c>
       <c r="D221" t="s">
@@ -11967,14 +11979,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1180</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="1" t="s">
         <v>461</v>
       </c>
       <c r="D222" t="s">
@@ -12012,10 +12024,10 @@
       <c r="A223">
         <v>1180</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="1" t="s">
         <v>463</v>
       </c>
       <c r="D223" t="s">
@@ -12049,14 +12061,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1180</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="1" t="s">
         <v>464</v>
       </c>
       <c r="D224" t="s">
@@ -12090,14 +12102,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1181</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="1" t="s">
         <v>465</v>
       </c>
       <c r="D225" t="s">
@@ -12135,10 +12147,10 @@
       <c r="A226">
         <v>1181</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="1" t="s">
         <v>468</v>
       </c>
       <c r="D226" t="s">
@@ -12172,14 +12184,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1181</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="1" t="s">
         <v>470</v>
       </c>
       <c r="D227" t="s">
@@ -12213,14 +12225,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1182</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="1" t="s">
         <v>472</v>
       </c>
       <c r="D228" t="s">
@@ -12254,14 +12266,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1182</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D229" t="s">
@@ -12295,14 +12307,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1182</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="1" t="s">
         <v>477</v>
       </c>
       <c r="D230" t="s">
@@ -12336,14 +12348,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1183</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="1" t="s">
         <v>479</v>
       </c>
       <c r="D231" t="s">
@@ -12381,10 +12393,10 @@
       <c r="A232">
         <v>1183</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="1" t="s">
         <v>481</v>
       </c>
       <c r="D232" t="s">
@@ -12418,14 +12430,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1183</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="1" t="s">
         <v>482</v>
       </c>
       <c r="D233" t="s">
@@ -12459,14 +12471,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1184</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="1" t="s">
         <v>483</v>
       </c>
       <c r="D234" t="s">
@@ -12504,10 +12516,10 @@
       <c r="A235">
         <v>1184</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="1" t="s">
         <v>486</v>
       </c>
       <c r="D235" t="s">
@@ -12541,14 +12553,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1184</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="1" t="s">
         <v>488</v>
       </c>
       <c r="D236" t="s">
@@ -12582,14 +12594,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1185</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="1" t="s">
         <v>490</v>
       </c>
       <c r="D237" t="s">
@@ -12627,10 +12639,10 @@
       <c r="A238">
         <v>1185</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="1" t="s">
         <v>486</v>
       </c>
       <c r="D238" t="s">
@@ -12664,14 +12676,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1185</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D239" t="s">
@@ -12705,14 +12717,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1186</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="1" t="s">
         <v>495</v>
       </c>
       <c r="D240" t="s">
@@ -12750,10 +12762,10 @@
       <c r="A241">
         <v>1186</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="1" t="s">
         <v>486</v>
       </c>
       <c r="D241" t="s">
@@ -12787,14 +12799,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1186</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="1" t="s">
         <v>498</v>
       </c>
       <c r="D242" t="s">
@@ -12828,14 +12840,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1187</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="1" t="s">
         <v>499</v>
       </c>
       <c r="D243" t="s">
@@ -12873,10 +12885,10 @@
       <c r="A244">
         <v>1187</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="1" t="s">
         <v>502</v>
       </c>
       <c r="D244" t="s">
@@ -12910,14 +12922,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1187</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="1" t="s">
         <v>504</v>
       </c>
       <c r="D245" t="s">
@@ -12951,14 +12963,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1188</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="1" t="s">
         <v>506</v>
       </c>
       <c r="D246" t="s">
@@ -12992,14 +13004,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1188</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="1" t="s">
         <v>509</v>
       </c>
       <c r="D247" t="s">
@@ -13033,14 +13045,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1188</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="1" t="s">
         <v>511</v>
       </c>
       <c r="D248" t="s">
@@ -13074,14 +13086,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1189</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="1" t="s">
         <v>513</v>
       </c>
       <c r="D249" t="s">
@@ -13119,10 +13131,10 @@
       <c r="A250">
         <v>1189</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="1" t="s">
         <v>515</v>
       </c>
       <c r="D250" t="s">
@@ -13156,14 +13168,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1189</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D251" t="s">
@@ -13197,14 +13209,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1190</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="1" t="s">
         <v>517</v>
       </c>
       <c r="D252" t="s">
@@ -13238,14 +13250,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1190</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="1" t="s">
         <v>520</v>
       </c>
       <c r="D253" t="s">
@@ -13279,14 +13291,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1190</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="1" t="s">
         <v>522</v>
       </c>
       <c r="D254" t="s">
@@ -13320,14 +13332,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1191</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="1" t="s">
         <v>524</v>
       </c>
       <c r="D255" t="s">
@@ -13361,14 +13373,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1191</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D256" t="s">
@@ -13402,14 +13414,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1191</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="1" t="s">
         <v>529</v>
       </c>
       <c r="D257" t="s">
@@ -13443,14 +13455,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1192</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="1" t="s">
         <v>531</v>
       </c>
       <c r="D258" t="s">
@@ -13484,14 +13496,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1192</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="1" t="s">
         <v>533</v>
       </c>
       <c r="D259" t="s">
@@ -13525,14 +13537,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1192</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="1" t="s">
         <v>534</v>
       </c>
       <c r="D260" t="s">
@@ -13566,14 +13578,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1193</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="1" t="s">
         <v>535</v>
       </c>
       <c r="D261" t="s">
@@ -13607,14 +13619,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1193</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="1" t="s">
         <v>538</v>
       </c>
       <c r="D262" t="s">
@@ -13648,14 +13660,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1193</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="1" t="s">
         <v>540</v>
       </c>
       <c r="D263" t="s">
@@ -13689,14 +13701,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1194</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="1" t="s">
         <v>542</v>
       </c>
       <c r="D264" t="s">
@@ -13730,14 +13742,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1194</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="1" t="s">
         <v>538</v>
       </c>
       <c r="D265" t="s">
@@ -13771,14 +13783,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1194</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D266" t="s">
@@ -13812,14 +13824,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1195</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="1" t="s">
         <v>548</v>
       </c>
       <c r="D267" t="s">
@@ -13857,10 +13869,10 @@
       <c r="A268">
         <v>1195</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="1" t="s">
         <v>550</v>
       </c>
       <c r="D268" t="s">
@@ -13894,14 +13906,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1195</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="1" t="s">
         <v>551</v>
       </c>
       <c r="D269" t="s">
@@ -13935,14 +13947,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1196</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="1" t="s">
         <v>552</v>
       </c>
       <c r="D270" t="s">
@@ -13976,14 +13988,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1196</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="1" t="s">
         <v>555</v>
       </c>
       <c r="D271" t="s">
@@ -14017,14 +14029,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1196</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D272" t="s">
@@ -14058,14 +14070,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1197</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="1" t="s">
         <v>559</v>
       </c>
       <c r="D273" t="s">
@@ -14099,14 +14111,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1197</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="1" t="s">
         <v>562</v>
       </c>
       <c r="D274" t="s">
@@ -14140,14 +14152,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1197</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="1" t="s">
         <v>564</v>
       </c>
       <c r="D275" t="s">
@@ -14181,14 +14193,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1198</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="1" t="s">
         <v>566</v>
       </c>
       <c r="D276" t="s">
@@ -14222,14 +14234,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1198</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="1" t="s">
         <v>568</v>
       </c>
       <c r="D277" t="s">
@@ -14263,14 +14275,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1198</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="1" t="s">
         <v>569</v>
       </c>
       <c r="D278" t="s">
@@ -14304,14 +14316,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1199</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="1" t="s">
         <v>570</v>
       </c>
       <c r="D279" t="s">
@@ -14349,10 +14361,10 @@
       <c r="A280">
         <v>1199</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="1" t="s">
         <v>573</v>
       </c>
       <c r="D280" t="s">
@@ -14386,14 +14398,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1199</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="1" t="s">
         <v>575</v>
       </c>
       <c r="D281" t="s">
@@ -14427,14 +14439,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>1200</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="1" t="s">
         <v>577</v>
       </c>
       <c r="D282" t="s">
@@ -14468,14 +14480,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1200</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="1" t="s">
         <v>580</v>
       </c>
       <c r="D283" t="s">
@@ -14509,14 +14521,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1200</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="1" t="s">
         <v>582</v>
       </c>
       <c r="D284" t="s">
@@ -14554,10 +14566,10 @@
       <c r="A285">
         <v>1201</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="1" t="s">
         <v>584</v>
       </c>
       <c r="D285" t="s">
@@ -14595,10 +14607,10 @@
       <c r="A286">
         <v>1201</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="1" t="s">
         <v>586</v>
       </c>
       <c r="D286" t="s">
@@ -14632,14 +14644,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1201</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="1" t="s">
         <v>587</v>
       </c>
       <c r="D287" t="s">
@@ -14673,14 +14685,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1202</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="1" t="s">
         <v>588</v>
       </c>
       <c r="D288" t="s">
@@ -14718,10 +14730,10 @@
       <c r="A289">
         <v>1202</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="1" t="s">
         <v>591</v>
       </c>
       <c r="D289" t="s">
@@ -14755,14 +14767,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1202</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="1" t="s">
         <v>593</v>
       </c>
       <c r="D290" t="s">
@@ -14796,14 +14808,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1203</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D291" t="s">
@@ -14837,14 +14849,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1203</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="1" t="s">
         <v>598</v>
       </c>
       <c r="D292" t="s">
@@ -14878,14 +14890,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1203</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="1" t="s">
         <v>600</v>
       </c>
       <c r="D293" t="s">
@@ -14923,10 +14935,10 @@
       <c r="A294">
         <v>1204</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="1" t="s">
         <v>602</v>
       </c>
       <c r="D294" t="s">
@@ -14964,10 +14976,10 @@
       <c r="A295">
         <v>1204</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D295" t="s">
@@ -15001,14 +15013,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1204</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="1" t="s">
         <v>605</v>
       </c>
       <c r="D296" t="s">
@@ -15042,14 +15054,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1205</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="1" t="s">
         <v>606</v>
       </c>
       <c r="D297" t="s">
@@ -15083,14 +15095,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1205</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D298" t="s">
@@ -15124,14 +15136,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1205</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D299" t="s">
@@ -15165,14 +15177,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1206</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="1" t="s">
         <v>613</v>
       </c>
       <c r="D300" t="s">
@@ -15206,14 +15218,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1206</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="1" t="s">
         <v>616</v>
       </c>
       <c r="D301" t="s">
@@ -15247,14 +15259,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1206</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="1" t="s">
         <v>618</v>
       </c>
       <c r="D302" t="s">
@@ -15288,14 +15300,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1207</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="1" t="s">
         <v>620</v>
       </c>
       <c r="D303" t="s">
@@ -15329,14 +15341,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1207</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D304" t="s">
@@ -15370,14 +15382,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1207</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="1" t="s">
         <v>622</v>
       </c>
       <c r="D305" t="s">
@@ -15411,14 +15423,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1208</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="1" t="s">
         <v>623</v>
       </c>
       <c r="D306" t="s">
@@ -15456,10 +15468,10 @@
       <c r="A307">
         <v>1208</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="1" t="s">
         <v>626</v>
       </c>
       <c r="D307" t="s">
@@ -15493,14 +15505,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>1208</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="1" t="s">
         <v>628</v>
       </c>
       <c r="D308" t="s">
@@ -15534,14 +15546,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>1209</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="1" t="s">
         <v>630</v>
       </c>
       <c r="D309" t="s">
@@ -15575,14 +15587,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1209</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="1" t="s">
         <v>633</v>
       </c>
       <c r="D310" t="s">
@@ -15616,14 +15628,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>1209</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="1" t="s">
         <v>634</v>
       </c>
       <c r="D311" t="s">
@@ -15657,14 +15669,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1210</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="1" t="s">
         <v>636</v>
       </c>
       <c r="D312" t="s">
@@ -15702,10 +15714,10 @@
       <c r="A313">
         <v>1210</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="1" t="s">
         <v>638</v>
       </c>
       <c r="D313" t="s">
@@ -15739,14 +15751,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>1210</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="1" t="s">
         <v>639</v>
       </c>
       <c r="D314" t="s">
@@ -15780,14 +15792,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1211</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="1" t="s">
         <v>640</v>
       </c>
       <c r="D315" t="s">
@@ -15821,14 +15833,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1211</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="1" t="s">
         <v>640</v>
       </c>
       <c r="D316" t="s">
@@ -15862,14 +15874,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1211</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="1" t="s">
         <v>640</v>
       </c>
       <c r="D317" t="s">
@@ -15903,14 +15915,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1212</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="1" t="s">
         <v>645</v>
       </c>
       <c r="D318" t="s">
@@ -15944,14 +15956,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1212</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="1" t="s">
         <v>645</v>
       </c>
       <c r="D319" t="s">
@@ -15985,14 +15997,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1212</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="1" t="s">
         <v>645</v>
       </c>
       <c r="D320" t="s">
@@ -16026,14 +16038,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1213</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="1" t="s">
         <v>647</v>
       </c>
       <c r="D321" t="s">
@@ -16067,14 +16079,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1213</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="1" t="s">
         <v>647</v>
       </c>
       <c r="D322" t="s">
@@ -16108,14 +16120,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1213</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="1" t="s">
         <v>647</v>
       </c>
       <c r="D323" t="s">
@@ -16149,14 +16161,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1214</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D324" t="s">
@@ -16190,14 +16202,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1214</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D325" t="s">
@@ -16231,14 +16243,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1214</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D326" t="s">
@@ -16272,14 +16284,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1215</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="1" t="s">
         <v>654</v>
       </c>
       <c r="D327" t="s">
@@ -16313,14 +16325,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1215</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="1" t="s">
         <v>654</v>
       </c>
       <c r="D328" t="s">
@@ -16354,14 +16366,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1215</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="1" t="s">
         <v>654</v>
       </c>
       <c r="D329" t="s">
@@ -16395,14 +16407,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1216</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="1" t="s">
         <v>658</v>
       </c>
       <c r="D330" t="s">
@@ -16436,14 +16448,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1216</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="1" t="s">
         <v>658</v>
       </c>
       <c r="D331" t="s">
@@ -16477,14 +16489,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1216</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="1" t="s">
         <v>658</v>
       </c>
       <c r="D332" t="s">
@@ -16518,14 +16530,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1217</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="1" t="s">
         <v>660</v>
       </c>
       <c r="D333" t="s">
@@ -16559,14 +16571,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1217</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="1" t="s">
         <v>660</v>
       </c>
       <c r="D334" t="s">
@@ -16600,14 +16612,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1217</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="1" t="s">
         <v>660</v>
       </c>
       <c r="D335" t="s">
@@ -16641,14 +16653,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1218</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="1" t="s">
         <v>662</v>
       </c>
       <c r="D336" t="s">
@@ -16682,14 +16694,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1218</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="1" t="s">
         <v>662</v>
       </c>
       <c r="D337" t="s">
@@ -16723,14 +16735,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1218</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="1" t="s">
         <v>662</v>
       </c>
       <c r="D338" t="s">
@@ -16764,14 +16776,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1219</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="1" t="s">
         <v>664</v>
       </c>
       <c r="D339" t="s">
@@ -16805,14 +16817,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1219</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="1" t="s">
         <v>664</v>
       </c>
       <c r="D340" t="s">
@@ -16846,14 +16858,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1219</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="1" t="s">
         <v>664</v>
       </c>
       <c r="D341" t="s">
@@ -16887,14 +16899,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1220</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="1" t="s">
         <v>669</v>
       </c>
       <c r="D342" t="s">
@@ -16928,14 +16940,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1220</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="1" t="s">
         <v>669</v>
       </c>
       <c r="D343" t="s">
@@ -16969,14 +16981,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>1220</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="1" t="s">
         <v>669</v>
       </c>
       <c r="D344" t="s">
@@ -17010,14 +17022,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1221</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="1" t="s">
         <v>671</v>
       </c>
       <c r="D345" t="s">
@@ -17051,14 +17063,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1221</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="1" t="s">
         <v>671</v>
       </c>
       <c r="D346" t="s">
@@ -17092,14 +17104,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1221</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="1" t="s">
         <v>671</v>
       </c>
       <c r="D347" t="s">
@@ -17133,14 +17145,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1222</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="1" t="s">
         <v>676</v>
       </c>
       <c r="D348" t="s">
@@ -17174,14 +17186,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>1222</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="1" t="s">
         <v>676</v>
       </c>
       <c r="D349" t="s">
@@ -17215,14 +17227,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1222</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="1" t="s">
         <v>676</v>
       </c>
       <c r="D350" t="s">
@@ -17256,14 +17268,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>1223</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="1" t="s">
         <v>678</v>
       </c>
       <c r="D351" t="s">
@@ -17297,14 +17309,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>1223</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="1" t="s">
         <v>678</v>
       </c>
       <c r="D352" t="s">
@@ -17338,14 +17350,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1223</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="1" t="s">
         <v>678</v>
       </c>
       <c r="D353" t="s">
@@ -17379,14 +17391,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1224</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="1" t="s">
         <v>683</v>
       </c>
       <c r="D354" t="s">
@@ -17420,14 +17432,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>1224</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="1" t="s">
         <v>683</v>
       </c>
       <c r="D355" t="s">
@@ -17461,14 +17473,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>1224</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="1" t="s">
         <v>683</v>
       </c>
       <c r="D356" t="s">
@@ -17502,14 +17514,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>1225</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="1" t="s">
         <v>685</v>
       </c>
       <c r="D357" t="s">
@@ -17543,14 +17555,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1225</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="1" t="s">
         <v>685</v>
       </c>
       <c r="D358" t="s">
@@ -17584,14 +17596,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>1225</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="1" t="s">
         <v>685</v>
       </c>
       <c r="D359" t="s">
@@ -17625,14 +17637,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1226</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="1" t="s">
         <v>689</v>
       </c>
       <c r="D360" t="s">
@@ -17666,14 +17678,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1226</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="1" t="s">
         <v>689</v>
       </c>
       <c r="D361" t="s">
@@ -17707,14 +17719,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>1226</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C362" s="1" t="s">
         <v>689</v>
       </c>
       <c r="D362" t="s">
@@ -17748,14 +17760,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>1227</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="1" t="s">
         <v>694</v>
       </c>
       <c r="D363" t="s">
@@ -17789,14 +17801,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1227</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="1" t="s">
         <v>694</v>
       </c>
       <c r="D364" t="s">
@@ -17830,14 +17842,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>1227</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="1" t="s">
         <v>694</v>
       </c>
       <c r="D365" t="s">
@@ -17871,14 +17883,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>1228</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="1" t="s">
         <v>699</v>
       </c>
       <c r="D366" t="s">
@@ -17912,14 +17924,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>1228</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="1" t="s">
         <v>699</v>
       </c>
       <c r="D367" t="s">
@@ -17953,14 +17965,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>1228</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="1" t="s">
         <v>699</v>
       </c>
       <c r="D368" t="s">
@@ -17994,14 +18006,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>1229</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="1" t="s">
         <v>704</v>
       </c>
       <c r="D369" t="s">
@@ -18035,14 +18047,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>1229</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C370" s="1" t="s">
         <v>704</v>
       </c>
       <c r="D370" t="s">
@@ -18076,14 +18088,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>1229</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C371" s="1" t="s">
         <v>704</v>
       </c>
       <c r="D371" t="s">
@@ -18117,14 +18129,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>1230</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C372" s="1" t="s">
         <v>706</v>
       </c>
       <c r="D372" t="s">
@@ -18158,14 +18170,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>1230</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C373" s="1" t="s">
         <v>706</v>
       </c>
       <c r="D373" t="s">
@@ -18199,14 +18211,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>1230</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="1" t="s">
         <v>706</v>
       </c>
       <c r="D374" t="s">
@@ -18240,14 +18252,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>1231</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="1" t="s">
         <v>711</v>
       </c>
       <c r="D375" t="s">
@@ -18281,14 +18293,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>1231</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="1" t="s">
         <v>711</v>
       </c>
       <c r="D376" t="s">
@@ -18322,14 +18334,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>1231</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="1" t="s">
         <v>711</v>
       </c>
       <c r="D377" t="s">
@@ -18363,14 +18375,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>1232</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C378" s="1" t="s">
         <v>716</v>
       </c>
       <c r="D378" t="s">
@@ -18404,14 +18416,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>1232</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="1" t="s">
         <v>716</v>
       </c>
       <c r="D379" t="s">
@@ -18445,14 +18457,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>1232</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="1" t="s">
         <v>716</v>
       </c>
       <c r="D380" t="s">
@@ -18486,14 +18498,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1233</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="1" t="s">
         <v>721</v>
       </c>
       <c r="D381" t="s">
@@ -18527,14 +18539,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1233</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C382" s="1" t="s">
         <v>721</v>
       </c>
       <c r="D382" t="s">
@@ -18568,14 +18580,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>1233</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="1" t="s">
         <v>721</v>
       </c>
       <c r="D383" t="s">
@@ -18609,14 +18621,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>1234</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C384" s="1" t="s">
         <v>723</v>
       </c>
       <c r="D384" t="s">
@@ -18650,14 +18662,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>1234</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C385" s="1" t="s">
         <v>723</v>
       </c>
       <c r="D385" t="s">
@@ -18691,14 +18703,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>1234</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C386" s="1" t="s">
         <v>723</v>
       </c>
       <c r="D386" t="s">
@@ -18732,14 +18744,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>1235</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="1" t="s">
         <v>728</v>
       </c>
       <c r="D387" t="s">
@@ -18773,14 +18785,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>1235</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="1" t="s">
         <v>728</v>
       </c>
       <c r="D388" t="s">
@@ -18814,14 +18826,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>1235</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="1" t="s">
         <v>728</v>
       </c>
       <c r="D389" t="s">
@@ -18855,14 +18867,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>1236</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="1" t="s">
         <v>733</v>
       </c>
       <c r="D390" t="s">
@@ -18896,14 +18908,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>1236</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="1" t="s">
         <v>733</v>
       </c>
       <c r="D391" t="s">
@@ -18937,14 +18949,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>1236</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="1" t="s">
         <v>733</v>
       </c>
       <c r="D392" t="s">
@@ -18978,14 +18990,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>1237</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="1" t="s">
         <v>735</v>
       </c>
       <c r="D393" t="s">
@@ -19019,14 +19031,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>1237</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="1" t="s">
         <v>735</v>
       </c>
       <c r="D394" t="s">
@@ -19060,14 +19072,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>1237</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C395" s="1" t="s">
         <v>735</v>
       </c>
       <c r="D395" t="s">
@@ -19101,14 +19113,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>1238</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="1" t="s">
         <v>740</v>
       </c>
       <c r="D396" t="s">
@@ -19142,14 +19154,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1238</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="1" t="s">
         <v>740</v>
       </c>
       <c r="D397" t="s">
@@ -19183,14 +19195,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>1238</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C398" s="1" t="s">
         <v>740</v>
       </c>
       <c r="D398" t="s">
@@ -19224,14 +19236,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>1239</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="1" t="s">
         <v>745</v>
       </c>
       <c r="D399" t="s">
@@ -19265,14 +19277,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1239</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="1" t="s">
         <v>745</v>
       </c>
       <c r="D400" t="s">
@@ -19306,14 +19318,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>1239</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="1" t="s">
         <v>745</v>
       </c>
       <c r="D401" t="s">
@@ -19347,14 +19359,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>1240</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="1" t="s">
         <v>748</v>
       </c>
       <c r="D402" t="s">
@@ -19388,14 +19400,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>1240</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="1" t="s">
         <v>748</v>
       </c>
       <c r="D403" t="s">
@@ -19429,14 +19441,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>1240</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="1" t="s">
         <v>748</v>
       </c>
       <c r="D404" t="s">
@@ -19470,14 +19482,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>1241</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D405" t="s">
@@ -19511,14 +19523,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>1241</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C406" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D406" t="s">
@@ -19552,14 +19564,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>1241</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D407" t="s">
@@ -19593,14 +19605,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>1242</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C408" s="1" t="s">
         <v>758</v>
       </c>
       <c r="D408" t="s">
@@ -19634,14 +19646,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>1242</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="1" t="s">
         <v>758</v>
       </c>
       <c r="D409" t="s">
@@ -19675,14 +19687,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>1242</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="1" t="s">
         <v>758</v>
       </c>
       <c r="D410" t="s">
@@ -19716,14 +19728,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>1243</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="1" t="s">
         <v>760</v>
       </c>
       <c r="D411" t="s">
@@ -19757,14 +19769,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1243</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="1" t="s">
         <v>760</v>
       </c>
       <c r="D412" t="s">
@@ -19798,14 +19810,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>1243</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="1" t="s">
         <v>760</v>
       </c>
       <c r="D413" t="s">
@@ -19839,14 +19851,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>1250</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="1" t="s">
         <v>765</v>
       </c>
       <c r="D414" t="s">
@@ -19880,14 +19892,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>1251</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="1" t="s">
         <v>765</v>
       </c>
       <c r="D415" t="s">
@@ -19921,14 +19933,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>1252</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="1" t="s">
         <v>765</v>
       </c>
       <c r="D416" t="s">
@@ -19962,14 +19974,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>1253</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="1" t="s">
         <v>771</v>
       </c>
       <c r="D417" t="s">
@@ -20003,14 +20015,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>1254</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="1" t="s">
         <v>771</v>
       </c>
       <c r="D418" t="s">
@@ -20044,14 +20056,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>1255</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="1" t="s">
         <v>771</v>
       </c>
       <c r="D419" t="s">
@@ -20085,14 +20097,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>1260</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C420" s="1" t="s">
         <v>777</v>
       </c>
       <c r="D420" t="s">
@@ -20126,14 +20138,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>1261</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="1" t="s">
         <v>777</v>
       </c>
       <c r="D421" t="s">
@@ -20167,14 +20179,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>1262</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C422" s="1" t="s">
         <v>777</v>
       </c>
       <c r="D422" t="s">
@@ -20208,14 +20220,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>1263</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C423" s="1" t="s">
         <v>783</v>
       </c>
       <c r="D423" t="s">
@@ -20249,14 +20261,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>1264</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="1" t="s">
         <v>787</v>
       </c>
       <c r="D424" t="s">
@@ -20290,14 +20302,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>1265</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="1" t="s">
         <v>790</v>
       </c>
       <c r="D425" t="s">
@@ -20331,14 +20343,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>1266</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="1" t="s">
         <v>793</v>
       </c>
       <c r="D426" t="s">
@@ -20372,14 +20384,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>1267</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="1" t="s">
         <v>796</v>
       </c>
       <c r="D427" t="s">
@@ -20413,14 +20425,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>1268</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="1" t="s">
         <v>799</v>
       </c>
       <c r="D428" t="s">
@@ -20454,14 +20466,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>1269</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="1" t="s">
         <v>802</v>
       </c>
       <c r="D429" t="s">
@@ -20495,14 +20507,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>1270</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="1" t="s">
         <v>802</v>
       </c>
       <c r="D430" t="s">
@@ -20540,10 +20552,10 @@
       <c r="A431">
         <v>1271</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="1" t="s">
         <v>802</v>
       </c>
       <c r="D431" t="s">
@@ -20581,10 +20593,10 @@
       <c r="A432">
         <v>1272</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="1" t="s">
         <v>811</v>
       </c>
       <c r="D432" t="s">
@@ -20622,10 +20634,10 @@
       <c r="A433">
         <v>1272</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="1" t="s">
         <v>814</v>
       </c>
       <c r="D433" t="s">
@@ -20663,10 +20675,10 @@
       <c r="A434">
         <v>1272</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="1" t="s">
         <v>813</v>
       </c>
       <c r="D434" t="s">
@@ -20704,10 +20716,10 @@
       <c r="A435">
         <v>1273</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="1" t="s">
         <v>811</v>
       </c>
       <c r="D435" t="s">
@@ -20745,10 +20757,10 @@
       <c r="A436">
         <v>1273</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="1" t="s">
         <v>815</v>
       </c>
       <c r="D436" t="s">
@@ -20786,10 +20798,10 @@
       <c r="A437">
         <v>1273</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="1" t="s">
         <v>816</v>
       </c>
       <c r="D437" t="s">
@@ -20823,14 +20835,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>1274</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="1" t="s">
         <v>823</v>
       </c>
       <c r="D438" t="s">
@@ -20864,14 +20876,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>1274</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="1" t="s">
         <v>825</v>
       </c>
       <c r="D439" t="s">
@@ -20905,14 +20917,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>1274</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="1" t="s">
         <v>826</v>
       </c>
       <c r="D440" t="s">
@@ -20946,14 +20958,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>1275</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="1" t="s">
         <v>827</v>
       </c>
       <c r="D441" t="s">
@@ -20987,14 +20999,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>1275</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="1" t="s">
         <v>828</v>
       </c>
       <c r="D442" t="s">
@@ -21028,14 +21040,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>1275</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="1" t="s">
         <v>829</v>
       </c>
       <c r="D443" t="s">
@@ -21073,10 +21085,10 @@
       <c r="A444">
         <v>1276</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="1" t="s">
         <v>835</v>
       </c>
       <c r="D444" t="s">
@@ -21114,10 +21126,10 @@
       <c r="A445">
         <v>1276</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="1" t="s">
         <v>837</v>
       </c>
       <c r="D445" t="s">
@@ -21155,10 +21167,10 @@
       <c r="A446">
         <v>1276</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="1" t="s">
         <v>836</v>
       </c>
       <c r="D446" t="s">
@@ -21196,10 +21208,10 @@
       <c r="A447">
         <v>1277</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="1" t="s">
         <v>838</v>
       </c>
       <c r="D447" t="s">
@@ -21237,10 +21249,10 @@
       <c r="A448">
         <v>1277</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C448" s="1" t="s">
         <v>839</v>
       </c>
       <c r="D448" t="s">
@@ -21278,10 +21290,10 @@
       <c r="A449">
         <v>1277</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C449" s="1" t="s">
         <v>840</v>
       </c>
       <c r="D449" t="s">
@@ -21319,10 +21331,10 @@
       <c r="A450">
         <v>1278</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C450" s="1" t="s">
         <v>841</v>
       </c>
       <c r="D450" t="s">
@@ -21360,10 +21372,10 @@
       <c r="A451">
         <v>1278</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C451" s="1" t="s">
         <v>843</v>
       </c>
       <c r="D451" t="s">
@@ -21401,10 +21413,10 @@
       <c r="A452">
         <v>1278</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C452" s="1" t="s">
         <v>842</v>
       </c>
       <c r="D452" t="s">
@@ -21442,10 +21454,10 @@
       <c r="A453">
         <v>1279</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="1" t="s">
         <v>844</v>
       </c>
       <c r="D453" t="s">
@@ -21483,10 +21495,10 @@
       <c r="A454">
         <v>1279</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C454" s="1" t="s">
         <v>846</v>
       </c>
       <c r="D454" t="s">
@@ -21524,10 +21536,10 @@
       <c r="A455">
         <v>1279</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D455" t="s">
@@ -21558,6 +21570,129 @@
         <v>19</v>
       </c>
       <c r="M455" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A456">
+        <v>1280</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D456" t="s">
+        <v>14</v>
+      </c>
+      <c r="E456" t="s">
+        <v>28</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G456">
+        <v>10003</v>
+      </c>
+      <c r="H456" t="s">
+        <v>46</v>
+      </c>
+      <c r="I456" t="s">
+        <v>848</v>
+      </c>
+      <c r="J456" t="s">
+        <v>18</v>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="s">
+        <v>19</v>
+      </c>
+      <c r="M456" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A457">
+        <v>1280</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D457" t="s">
+        <v>14</v>
+      </c>
+      <c r="E457" t="s">
+        <v>28</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="G457">
+        <v>10003</v>
+      </c>
+      <c r="H457" t="s">
+        <v>46</v>
+      </c>
+      <c r="I457" t="s">
+        <v>848</v>
+      </c>
+      <c r="J457" t="s">
+        <v>39</v>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="s">
+        <v>19</v>
+      </c>
+      <c r="M457" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A458">
+        <v>1280</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D458" t="s">
+        <v>14</v>
+      </c>
+      <c r="E458" t="s">
+        <v>28</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="G458">
+        <v>10003</v>
+      </c>
+      <c r="H458" t="s">
+        <v>46</v>
+      </c>
+      <c r="I458" t="s">
+        <v>848</v>
+      </c>
+      <c r="J458" t="s">
+        <v>31</v>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="s">
+        <v>19</v>
+      </c>
+      <c r="M458" t="s">
         <v>20</v>
       </c>
     </row>
